--- a/CONFIDENTIAL/DB2.xlsx
+++ b/CONFIDENTIAL/DB2.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\SE_FW2\CONFIDENTIAL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DDE7E6-7CEA-4D34-9908-1F2D080A0898}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="3"/>
+    <workbookView xWindow="-22530" yWindow="450" windowWidth="16245" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Advances" sheetId="1" r:id="rId1"/>
@@ -154,8 +160,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +198,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -238,7 +252,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,9 +284,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -304,6 +336,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -479,16 +529,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -499,7 +553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -510,7 +564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -521,7 +575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -532,7 +586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -543,7 +597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -554,7 +608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -565,7 +619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -576,7 +630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -587,7 +641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -598,7 +652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -609,7 +663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -620,7 +674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -631,7 +685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -642,7 +696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -653,7 +707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -664,19 +718,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -687,7 +742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -698,7 +753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -709,7 +764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -720,7 +775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -731,7 +786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -742,7 +797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -753,7 +808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -764,7 +819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -781,16 +836,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -801,7 +859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -812,7 +870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -823,7 +881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -834,7 +892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -845,7 +903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -856,7 +914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -867,7 +925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -878,16 +936,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -898,7 +960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -909,7 +971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -920,7 +982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -931,7 +993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -942,7 +1004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -953,7 +1015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -964,7 +1026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -975,7 +1037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -986,7 +1048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
